--- a/Magic.Guangdong.Exam/wwwroot/upfile/202404/excel题库导入模板.xlsx
+++ b/Magic.Guangdong.Exam/wwwroot/upfile/202404/excel题库导入模板.xlsx
@@ -36,11 +36,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">输入后台创建的活动，如果是通用题库则不用填</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">只能填入容易，普通，困难三种类型</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -51,7 +62,7 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -62,7 +73,7 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -73,7 +84,7 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -84,7 +95,7 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -95,7 +106,7 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -106,7 +117,7 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -117,7 +128,7 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -128,7 +139,7 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -139,7 +150,7 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -150,7 +161,7 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -177,12 +188,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>科目</t>
   </si>
   <si>
     <t>题型</t>
+  </si>
+  <si>
+    <t>归属活动</t>
   </si>
   <si>
     <t>难度</t>
@@ -287,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
@@ -299,6 +313,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -314,7 +331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -322,19 +339,20 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="3" max="3" width="9.140625" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="11" customWidth="1" style="1"/>
+    <col min="3" max="3" width="9.857142857142858" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
     <col min="6" max="6" width="11" customWidth="1" style="1"/>
     <col min="7" max="7" width="11" customWidth="1" style="1"/>
     <col min="8" max="8" width="11" customWidth="1" style="1"/>
     <col min="9" max="9" width="11" customWidth="1" style="1"/>
     <col min="10" max="10" width="11" customWidth="1" style="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1" style="1"/>
+    <col min="11" max="11" width="11" customWidth="1" style="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1" style="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1" style="2"/>
-    <col min="14" max="14" width="9.140625" customWidth="1" style="1"/>
-    <col min="15" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="13" max="13" width="9.140625" customWidth="1" style="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1" style="2"/>
+    <col min="15" max="15" width="9.140625" customWidth="1" style="1"/>
+    <col min="16" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -344,46 +362,49 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" sqref="C2:C1048576">
+    <dataValidation type="list" sqref="D2:D1048576">
       <formula1>hidden_Degree!$A$1:$A$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -402,32 +423,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
